--- a/Resources/C签到与作业成绩.xlsx
+++ b/Resources/C签到与作业成绩.xlsx
@@ -1,249 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">学号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/7日 签到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴丽芬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李美露</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈振宝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨丽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈津津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">曾馥清</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郭楚君</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林耀娟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李艳婷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">莫楚虹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">潘建瑜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔡贵健</t>
-  </si>
-  <si>
-    <t xml:space="preserve">熊建安</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胡悦迎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄晓凤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑雪霞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">洪林辛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张小芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄绍祯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卢晓杰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江灿权</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘润翅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">许刊敏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傅东照</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黎远怡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">范海斌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林泳贤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈财</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄晓纯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王晓宇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张志波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵舒睿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林慧美</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔡哲铭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴光文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈旭城</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈俊然</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魏彩云</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林国迪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王雪晨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韦志毅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林大森</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄国荣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄俊文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江均桐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄景强</t>
-  </si>
-  <si>
-    <t xml:space="preserve">潘诗宇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石刚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王泽鹏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张云祥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王浩楠</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>11/7日 签到</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>吴丽芬</t>
+  </si>
+  <si>
+    <t>李美露</t>
+  </si>
+  <si>
+    <t>陈振宝</t>
+  </si>
+  <si>
+    <t>杨丽</t>
+  </si>
+  <si>
+    <t>陈津津</t>
+  </si>
+  <si>
+    <t>曾馥清</t>
+  </si>
+  <si>
+    <t>郭楚君</t>
+  </si>
+  <si>
+    <t>林耀娟</t>
+  </si>
+  <si>
+    <t>李艳婷</t>
+  </si>
+  <si>
+    <t>莫楚虹</t>
+  </si>
+  <si>
+    <t>潘建瑜</t>
+  </si>
+  <si>
+    <t>蔡贵健</t>
+  </si>
+  <si>
+    <t>熊建安</t>
+  </si>
+  <si>
+    <t>胡悦迎</t>
+  </si>
+  <si>
+    <t>黄晓凤</t>
+  </si>
+  <si>
+    <t>郑雪霞</t>
+  </si>
+  <si>
+    <t>洪林辛</t>
+  </si>
+  <si>
+    <t>张小芳</t>
+  </si>
+  <si>
+    <t>黄绍祯</t>
+  </si>
+  <si>
+    <t>卢晓杰</t>
+  </si>
+  <si>
+    <t>江灿权</t>
+  </si>
+  <si>
+    <t>刘润翅</t>
+  </si>
+  <si>
+    <t>许刊敏</t>
+  </si>
+  <si>
+    <t>傅东照</t>
+  </si>
+  <si>
+    <t>黎远怡</t>
+  </si>
+  <si>
+    <t>范海斌</t>
+  </si>
+  <si>
+    <t>林泳贤</t>
+  </si>
+  <si>
+    <t>陈财</t>
+  </si>
+  <si>
+    <t>100?</t>
+  </si>
+  <si>
+    <t>黄晓纯</t>
+  </si>
+  <si>
+    <t>王晓宇</t>
+  </si>
+  <si>
+    <t>张志波</t>
+  </si>
+  <si>
+    <t>赵舒睿</t>
+  </si>
+  <si>
+    <t>林慧美</t>
+  </si>
+  <si>
+    <t>蔡哲铭</t>
+  </si>
+  <si>
+    <t>吴光文</t>
+  </si>
+  <si>
+    <t>张小龙</t>
+  </si>
+  <si>
+    <t>陈旭城</t>
+  </si>
+  <si>
+    <t>陈俊然</t>
+  </si>
+  <si>
+    <t>魏彩云</t>
+  </si>
+  <si>
+    <t>林国迪</t>
+  </si>
+  <si>
+    <t>王雪晨</t>
+  </si>
+  <si>
+    <t>韦志毅</t>
+  </si>
+  <si>
+    <t>林大森</t>
+  </si>
+  <si>
+    <t>黄国荣</t>
+  </si>
+  <si>
+    <t>黄俊文</t>
+  </si>
+  <si>
+    <t>江均桐</t>
+  </si>
+  <si>
+    <t>黄景强</t>
+  </si>
+  <si>
+    <t>潘诗宇</t>
+  </si>
+  <si>
+    <t>石刚</t>
+  </si>
+  <si>
+    <t>王泽鹏</t>
+  </si>
+  <si>
+    <t>张云祥</t>
+  </si>
+  <si>
+    <t>王浩楠</t>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,114 +252,461 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFF200"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FAA61A"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00CE181E"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O43" activeCellId="0" sqref="O43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.62"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -377,90 +723,106 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>1601810132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>70</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>1606440121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>70</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4">
+        <v>70</v>
+      </c>
+      <c r="G3" s="4">
+        <v>75</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>1606640142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>85</v>
+      </c>
+      <c r="H4" s="4">
+        <v>95</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>1613100135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>70</v>
       </c>
       <c r="E5" s="4"/>
@@ -472,63 +834,67 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>1613100210</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>100</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>60</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>1613100217</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>90</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>95</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>90</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>1613100240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>90</v>
       </c>
       <c r="E8" s="4"/>
@@ -540,102 +906,118 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>1613100241</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4">
+        <v>80</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>1613100242</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
         <v>100</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="4">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7">
+        <v>95</v>
+      </c>
+      <c r="H10" s="4">
+        <v>80</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>1613100244</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
         <v>85</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>80</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4">
+        <v>70</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>1613240101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>85</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>90</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>1613240102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="4"/>
@@ -648,21 +1030,23 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>1613240104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
         <v>90</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>80</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -670,107 +1054,119 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>1613240105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
         <v>75</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>95</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>85</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>1613240108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
         <v>100</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>70</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>1613240110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>100</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>70</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>1613240121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
         <v>75</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>75</v>
+      </c>
+      <c r="H18" s="4">
+        <v>60</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>1613240123</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
         <v>80</v>
       </c>
       <c r="E19" s="4"/>
@@ -782,219 +1178,257 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>1613240125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
         <v>85</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="8">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4">
+        <v>90</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>1613240127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>75</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>80</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>1613240128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>75</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4">
+        <v>70</v>
+      </c>
+      <c r="H22" s="4">
+        <v>80</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>1613240131</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="4">
         <v>70</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4">
+        <v>75</v>
+      </c>
+      <c r="H23" s="4">
+        <v>75</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>1613240137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
         <v>95</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="4">
+        <v>80</v>
+      </c>
+      <c r="H24" s="10">
+        <v>80</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>1613240138</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
         <v>100</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="6">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <v>70</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>1613240139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
         <v>80</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="F26" s="6">
+        <v>100</v>
+      </c>
+      <c r="G26" s="4">
+        <v>75</v>
+      </c>
+      <c r="H26" s="10">
+        <v>80</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
         <v>1613240141</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
         <v>100</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4">
+        <v>70</v>
+      </c>
+      <c r="H27" s="9">
+        <v>60</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>1613240143</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
         <v>100</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="4">
         <v>100</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4">
+        <v>70</v>
+      </c>
+      <c r="H28" s="9">
+        <v>60</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
         <v>1606440126</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>70</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1002,32 +1436,36 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
         <v>1606750215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>90</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4">
+        <v>100</v>
+      </c>
+      <c r="H30" s="4">
+        <v>90</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>1613240103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1040,19 +1478,21 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>1613240106</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="4">
         <v>70</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="8">
+        <v>100</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1060,15 +1500,15 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>1613240107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="4">
         <v>80</v>
       </c>
       <c r="E33" s="4"/>
@@ -1080,52 +1520,56 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>1613240109</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="4">
         <v>90</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4">
+        <v>70</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
         <v>1613240111</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="4">
         <v>75</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4">
+        <v>70</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
         <v>1613240112</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
@@ -1138,12 +1582,12 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
         <v>1613240116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -1156,17 +1600,17 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
         <v>1613240117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="4">
         <v>99</v>
       </c>
       <c r="G38" s="4"/>
@@ -1176,17 +1620,21 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
         <v>1613240118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="4">
+        <v>60</v>
+      </c>
+      <c r="F39" s="4">
+        <v>100</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1194,15 +1642,15 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>1613240119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="4">
         <v>75</v>
       </c>
       <c r="E40" s="4"/>
@@ -1214,70 +1662,76 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
         <v>1613240120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4">
+        <v>75</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
         <v>1613240122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="4">
         <v>80</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>80</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
         <v>1613240124</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="4">
         <v>75</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4">
+        <v>85</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
         <v>1613240126</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -1290,68 +1744,78 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
         <v>1613240129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="4">
         <v>95</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="F45" s="4">
+        <v>100</v>
+      </c>
+      <c r="G45" s="4">
+        <v>75</v>
+      </c>
+      <c r="H45" s="4">
+        <v>70</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
         <v>1613240130</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4">
+        <v>60</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
         <v>1613240132</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4">
+        <v>70</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
         <v>1613240133</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
@@ -1364,37 +1828,39 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
         <v>1613240135</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="4">
         <v>85</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4" t="n">
+      <c r="F49" s="4">
         <v>60</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4">
+        <v>80</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>1613240136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="4">
         <v>85</v>
       </c>
       <c r="E50" s="4"/>
@@ -1406,32 +1872,34 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
         <v>1613240140</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="4">
         <v>100</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4">
+        <v>60</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
         <v>1613240142</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
@@ -1444,22 +1912,24 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
         <v>1613240144</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="4">
         <v>70</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4" t="n">
+      <c r="F53" s="4">
         <v>60</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4">
+        <v>75</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -1467,64 +1937,42 @@
       <c r="L53" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.62"/>
+    <col min="1" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.62"/>
+    <col min="1" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>